--- a/src/assets/with_examples/faang_analysis.xlsx
+++ b/src/assets/with_examples/faang_analysis.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/Documents/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1919B1-0586-5B4E-A8A5-F453BBFDE689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A4336-2951-D44D-91C1-0B9FC615AE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27640" windowHeight="16040" activeTab="2" xr2:uid="{D8AC673E-FE7C-174A-B15F-CD4D6641A206}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27640" windowHeight="16040" xr2:uid="{D8AC673E-FE7C-174A-B15F-CD4D6641A206}"/>
   </bookViews>
   <sheets>
     <sheet name="faang" sheetId="1" r:id="rId1"/>
     <sheet name="ena" sheetId="2" r:id="rId2"/>
     <sheet name="eva" sheetId="3" r:id="rId3"/>
-    <sheet name="faang_field_values" sheetId="4" r:id="rId4"/>
+    <sheet name="faang_field_values" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3299,7 +3299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FCF971-7D08-D749-9B35-64EAEF14B736}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -7058,7 +7058,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>68</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>70</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>72</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>88</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>89</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>100</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>101</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>102</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>103</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>104</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>105</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>106</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>107</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>108</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>109</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>110</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>111</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>112</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>113</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>114</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>115</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>116</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>117</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>118</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>119</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>120</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>121</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>122</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>123</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>124</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>125</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>126</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>127</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>128</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>129</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>130</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>131</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>132</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>133</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="273" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>136</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>137</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>138</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>142</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>143</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>144</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>145</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>146</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>147</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>150</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>151</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>152</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>153</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>154</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>155</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>156</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>157</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>158</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>159</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>160</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>161</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>162</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>163</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>164</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>165</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="389" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>166</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="405" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="256" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -17048,7 +17048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF121EC-CD54-D140-8952-93B4B3FE79C0}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -17623,6 +17623,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="t0CSciK/EszlUTgagrurD8X1pkeeeTRazojb/BfK7aRNlijd1lCFe/rgN6Ivt7caLUowuVzlDeTLTSDfjDDDgg==" saltValue="c9TKUi2HgKziF906nEMgBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/with_examples/faang_analysis.xlsx
+++ b/src/assets/with_examples/faang_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A4336-2951-D44D-91C1-0B9FC615AE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DF694E-675A-E041-ACD8-199C5CA15F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27640" windowHeight="16040" xr2:uid="{D8AC673E-FE7C-174A-B15F-CD4D6641A206}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27640" windowHeight="16040" xr2:uid="{D8AC673E-FE7C-174A-B15F-CD4D6641A206}"/>
   </bookViews>
   <sheets>
     <sheet name="faang" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4295" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="944">
   <si>
     <t>Alias</t>
   </si>
@@ -2863,6 +2863,9 @@
   </si>
   <si>
     <t>Illumina MiSeq</t>
+  </si>
+  <si>
+    <t>Analysis Version</t>
   </si>
 </sst>
 </file>
@@ -3297,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FCF971-7D08-D749-9B35-64EAEF14B736}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3311,10 +3314,11 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="101.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3334,10 +3338,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3350,11 +3357,11 @@
       <c r="E2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3367,11 +3374,11 @@
       <c r="E3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3384,11 +3391,11 @@
       <c r="E4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3401,11 +3408,11 @@
       <c r="E5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3418,11 +3425,11 @@
       <c r="E6" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3435,11 +3442,11 @@
       <c r="E7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3452,11 +3459,11 @@
       <c r="E8" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3469,11 +3476,11 @@
       <c r="E9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3486,11 +3493,11 @@
       <c r="E10" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3503,11 +3510,11 @@
       <c r="E11" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -3520,11 +3527,11 @@
       <c r="E12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3537,11 +3544,11 @@
       <c r="E13" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3554,11 +3561,11 @@
       <c r="E14" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3571,11 +3578,11 @@
       <c r="E15" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -3588,11 +3595,11 @@
       <c r="E16" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -3605,11 +3612,11 @@
       <c r="E17" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3622,11 +3629,11 @@
       <c r="E18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -3639,11 +3646,11 @@
       <c r="E19" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -3656,11 +3663,11 @@
       <c r="E20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -3673,11 +3680,11 @@
       <c r="E21" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -3690,11 +3697,11 @@
       <c r="E22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -3707,11 +3714,11 @@
       <c r="E23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -3724,11 +3731,11 @@
       <c r="E24" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -3741,11 +3748,11 @@
       <c r="E25" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -3758,11 +3765,11 @@
       <c r="E26" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -3775,11 +3782,11 @@
       <c r="E27" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -3792,11 +3799,11 @@
       <c r="E28" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -3809,11 +3816,11 @@
       <c r="E29" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -3826,11 +3833,11 @@
       <c r="E30" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -3843,11 +3850,11 @@
       <c r="E31" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -3860,11 +3867,11 @@
       <c r="E32" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -3877,11 +3884,11 @@
       <c r="E33" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -3894,11 +3901,11 @@
       <c r="E34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -3911,11 +3918,11 @@
       <c r="E35" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -3928,11 +3935,11 @@
       <c r="E36" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
@@ -3945,11 +3952,11 @@
       <c r="E37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
@@ -3962,11 +3969,11 @@
       <c r="E38" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
@@ -3979,11 +3986,11 @@
       <c r="E39" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
@@ -3996,11 +4003,11 @@
       <c r="E40" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -4013,11 +4020,11 @@
       <c r="E41" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
@@ -4030,11 +4037,11 @@
       <c r="E42" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
@@ -4047,11 +4054,11 @@
       <c r="E43" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
@@ -4064,11 +4071,11 @@
       <c r="E44" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G44" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -4081,11 +4088,11 @@
       <c r="E45" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G45" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
@@ -4098,11 +4105,11 @@
       <c r="E46" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
@@ -4115,11 +4122,11 @@
       <c r="E47" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G47" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -4132,11 +4139,11 @@
       <c r="E48" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G48" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
@@ -4149,11 +4156,11 @@
       <c r="E49" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
@@ -4166,11 +4173,11 @@
       <c r="E50" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
@@ -4183,11 +4190,11 @@
       <c r="E51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G51" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
@@ -4200,11 +4207,11 @@
       <c r="E52" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G52" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
@@ -4217,11 +4224,11 @@
       <c r="E53" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G53" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
@@ -4234,11 +4241,11 @@
       <c r="E54" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G54" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
@@ -4251,11 +4258,11 @@
       <c r="E55" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
@@ -4268,11 +4275,11 @@
       <c r="E56" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -4285,11 +4292,11 @@
       <c r="E57" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G57" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
@@ -4302,11 +4309,11 @@
       <c r="E58" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G58" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
@@ -4319,11 +4326,11 @@
       <c r="E59" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G59" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -4336,11 +4343,11 @@
       <c r="E60" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G60" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -4353,11 +4360,11 @@
       <c r="E61" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G61" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
@@ -4370,11 +4377,11 @@
       <c r="E62" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G62" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>68</v>
       </c>
@@ -4387,11 +4394,11 @@
       <c r="E63" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G63" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
@@ -4404,11 +4411,11 @@
       <c r="E64" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G64" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>70</v>
       </c>
@@ -4421,11 +4428,11 @@
       <c r="E65" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G65" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -4438,11 +4445,11 @@
       <c r="E66" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G66" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>72</v>
       </c>
@@ -4455,11 +4462,11 @@
       <c r="E67" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G67" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
@@ -4472,11 +4479,11 @@
       <c r="E68" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G68" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
@@ -4489,11 +4496,11 @@
       <c r="E69" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
@@ -4506,11 +4513,11 @@
       <c r="E70" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G70" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
@@ -4523,11 +4530,11 @@
       <c r="E71" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
@@ -4540,11 +4547,11 @@
       <c r="E72" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G72" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
@@ -4557,11 +4564,11 @@
       <c r="E73" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
@@ -4574,11 +4581,11 @@
       <c r="E74" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G74" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
@@ -4591,11 +4598,11 @@
       <c r="E75" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G75" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
@@ -4608,11 +4615,11 @@
       <c r="E76" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G76" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
@@ -4625,11 +4632,11 @@
       <c r="E77" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G77" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
@@ -4642,11 +4649,11 @@
       <c r="E78" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G78" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
@@ -4659,11 +4666,11 @@
       <c r="E79" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G79" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
@@ -4676,11 +4683,11 @@
       <c r="E80" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G80" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
@@ -4693,11 +4700,11 @@
       <c r="E81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G81" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
@@ -4710,11 +4717,11 @@
       <c r="E82" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G82" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>88</v>
       </c>
@@ -4727,11 +4734,11 @@
       <c r="E83" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G83" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>89</v>
       </c>
@@ -4744,11 +4751,11 @@
       <c r="E84" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G84" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
@@ -4761,11 +4768,11 @@
       <c r="E85" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
@@ -4778,11 +4785,11 @@
       <c r="E86" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G86" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -4795,11 +4802,11 @@
       <c r="E87" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G87" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
@@ -4812,11 +4819,11 @@
       <c r="E88" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G88" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -4829,11 +4836,11 @@
       <c r="E89" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G89" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -4846,11 +4853,11 @@
       <c r="E90" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G90" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -4863,11 +4870,11 @@
       <c r="E91" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G91" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
@@ -4880,11 +4887,11 @@
       <c r="E92" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G92" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
@@ -4897,11 +4904,11 @@
       <c r="E93" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G93" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
@@ -4914,11 +4921,11 @@
       <c r="E94" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G94" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>100</v>
       </c>
@@ -4931,11 +4938,11 @@
       <c r="E95" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G95" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>101</v>
       </c>
@@ -4948,11 +4955,11 @@
       <c r="E96" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G96" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>102</v>
       </c>
@@ -4965,11 +4972,11 @@
       <c r="E97" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G97" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>103</v>
       </c>
@@ -4982,11 +4989,11 @@
       <c r="E98" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G98" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>104</v>
       </c>
@@ -4999,11 +5006,11 @@
       <c r="E99" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G99" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>105</v>
       </c>
@@ -5016,11 +5023,11 @@
       <c r="E100" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G100" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>106</v>
       </c>
@@ -5033,11 +5040,11 @@
       <c r="E101" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G101" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>107</v>
       </c>
@@ -5050,11 +5057,11 @@
       <c r="E102" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G102" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>108</v>
       </c>
@@ -5067,11 +5074,11 @@
       <c r="E103" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G103" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>109</v>
       </c>
@@ -5084,11 +5091,11 @@
       <c r="E104" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G104" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>110</v>
       </c>
@@ -5101,11 +5108,11 @@
       <c r="E105" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G105" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>111</v>
       </c>
@@ -5118,11 +5125,11 @@
       <c r="E106" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G106" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>112</v>
       </c>
@@ -5135,11 +5142,11 @@
       <c r="E107" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G107" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>113</v>
       </c>
@@ -5152,11 +5159,11 @@
       <c r="E108" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G108" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>114</v>
       </c>
@@ -5169,11 +5176,11 @@
       <c r="E109" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G109" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>115</v>
       </c>
@@ -5186,11 +5193,11 @@
       <c r="E110" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G110" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>116</v>
       </c>
@@ -5203,11 +5210,11 @@
       <c r="E111" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G111" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>117</v>
       </c>
@@ -5220,11 +5227,11 @@
       <c r="E112" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G112" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>118</v>
       </c>
@@ -5237,11 +5244,11 @@
       <c r="E113" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G113" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>119</v>
       </c>
@@ -5254,11 +5261,11 @@
       <c r="E114" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G114" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>120</v>
       </c>
@@ -5271,11 +5278,11 @@
       <c r="E115" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G115" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>121</v>
       </c>
@@ -5288,11 +5295,11 @@
       <c r="E116" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G116" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>122</v>
       </c>
@@ -5305,11 +5312,11 @@
       <c r="E117" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G117" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>123</v>
       </c>
@@ -5322,11 +5329,11 @@
       <c r="E118" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G118" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>124</v>
       </c>
@@ -5339,11 +5346,11 @@
       <c r="E119" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G119" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>125</v>
       </c>
@@ -5356,11 +5363,11 @@
       <c r="E120" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G120" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>126</v>
       </c>
@@ -5373,11 +5380,11 @@
       <c r="E121" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G121" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>127</v>
       </c>
@@ -5390,11 +5397,11 @@
       <c r="E122" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G122" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>128</v>
       </c>
@@ -5407,11 +5414,11 @@
       <c r="E123" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G123" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>129</v>
       </c>
@@ -5424,11 +5431,11 @@
       <c r="E124" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G124" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>130</v>
       </c>
@@ -5441,11 +5448,11 @@
       <c r="E125" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G125" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>131</v>
       </c>
@@ -5458,11 +5465,11 @@
       <c r="E126" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G126" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>132</v>
       </c>
@@ -5475,11 +5482,11 @@
       <c r="E127" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G127" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>133</v>
       </c>
@@ -5492,11 +5499,11 @@
       <c r="E128" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G128" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
@@ -5509,11 +5516,11 @@
       <c r="E129" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G129" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -5526,11 +5533,11 @@
       <c r="E130" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G130" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>136</v>
       </c>
@@ -5543,11 +5550,11 @@
       <c r="E131" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G131" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>137</v>
       </c>
@@ -5560,11 +5567,11 @@
       <c r="E132" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G132" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>138</v>
       </c>
@@ -5577,11 +5584,11 @@
       <c r="E133" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G133" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
@@ -5594,11 +5601,11 @@
       <c r="E134" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G134" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -5611,11 +5618,11 @@
       <c r="E135" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G135" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -5628,11 +5635,11 @@
       <c r="E136" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G136" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>142</v>
       </c>
@@ -5645,11 +5652,11 @@
       <c r="E137" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G137" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>143</v>
       </c>
@@ -5662,11 +5669,11 @@
       <c r="E138" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G138" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>144</v>
       </c>
@@ -5679,11 +5686,11 @@
       <c r="E139" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G139" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>145</v>
       </c>
@@ -5696,11 +5703,11 @@
       <c r="E140" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G140" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>146</v>
       </c>
@@ -5713,11 +5720,11 @@
       <c r="E141" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G141" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>147</v>
       </c>
@@ -5730,11 +5737,11 @@
       <c r="E142" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G142" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -5747,11 +5754,11 @@
       <c r="E143" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G143" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>149</v>
       </c>
@@ -5764,11 +5771,11 @@
       <c r="E144" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G144" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>150</v>
       </c>
@@ -5781,11 +5788,11 @@
       <c r="E145" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G145" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>151</v>
       </c>
@@ -5798,11 +5805,11 @@
       <c r="E146" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G146" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>152</v>
       </c>
@@ -5815,11 +5822,11 @@
       <c r="E147" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G147" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>153</v>
       </c>
@@ -5832,11 +5839,11 @@
       <c r="E148" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G148" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>154</v>
       </c>
@@ -5849,11 +5856,11 @@
       <c r="E149" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G149" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>155</v>
       </c>
@@ -5866,11 +5873,11 @@
       <c r="E150" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G150" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>156</v>
       </c>
@@ -5883,11 +5890,11 @@
       <c r="E151" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G151" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>157</v>
       </c>
@@ -5900,11 +5907,11 @@
       <c r="E152" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G152" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>158</v>
       </c>
@@ -5917,11 +5924,11 @@
       <c r="E153" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G153" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>159</v>
       </c>
@@ -5934,11 +5941,11 @@
       <c r="E154" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G154" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>160</v>
       </c>
@@ -5951,11 +5958,11 @@
       <c r="E155" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G155" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>161</v>
       </c>
@@ -5968,11 +5975,11 @@
       <c r="E156" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G156" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>162</v>
       </c>
@@ -5985,11 +5992,11 @@
       <c r="E157" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G157" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>163</v>
       </c>
@@ -6002,11 +6009,11 @@
       <c r="E158" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G158" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>164</v>
       </c>
@@ -6019,11 +6026,11 @@
       <c r="E159" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G159" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>165</v>
       </c>
@@ -6036,11 +6043,11 @@
       <c r="E160" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G160" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>166</v>
       </c>
@@ -6053,11 +6060,11 @@
       <c r="E161" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G161" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -6070,11 +6077,11 @@
       <c r="E162" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G162" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -6087,11 +6094,11 @@
       <c r="E163" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G163" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -6104,11 +6111,11 @@
       <c r="E164" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G164" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -6121,11 +6128,11 @@
       <c r="E165" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G165" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -6138,11 +6145,11 @@
       <c r="E166" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G166" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -6155,11 +6162,11 @@
       <c r="E167" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G167" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -6172,11 +6179,11 @@
       <c r="E168" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G168" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -6189,11 +6196,11 @@
       <c r="E169" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G169" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -6206,11 +6213,11 @@
       <c r="E170" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G170" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -6223,11 +6230,11 @@
       <c r="E171" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G171" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -6240,11 +6247,11 @@
       <c r="E172" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G172" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -6257,11 +6264,11 @@
       <c r="E173" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G173" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -6274,11 +6281,11 @@
       <c r="E174" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G174" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -6291,11 +6298,11 @@
       <c r="E175" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G175" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -6308,11 +6315,11 @@
       <c r="E176" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G176" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -6325,11 +6332,11 @@
       <c r="E177" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G177" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -6342,11 +6349,11 @@
       <c r="E178" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G178" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -6359,11 +6366,11 @@
       <c r="E179" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G179" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -6376,11 +6383,11 @@
       <c r="E180" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G180" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -6393,11 +6400,11 @@
       <c r="E181" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G181" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -6410,11 +6417,11 @@
       <c r="E182" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -6427,11 +6434,11 @@
       <c r="E183" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G183" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -6444,11 +6451,11 @@
       <c r="E184" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G184" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -6461,11 +6468,11 @@
       <c r="E185" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G185" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -6478,11 +6485,11 @@
       <c r="E186" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G186" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -6495,11 +6502,11 @@
       <c r="E187" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G187" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -6512,11 +6519,11 @@
       <c r="E188" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G188" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -6529,11 +6536,11 @@
       <c r="E189" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G189" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -6546,11 +6553,11 @@
       <c r="E190" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G190" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -6563,11 +6570,11 @@
       <c r="E191" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G191" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -6580,11 +6587,11 @@
       <c r="E192" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G192" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -6597,11 +6604,11 @@
       <c r="E193" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G193" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -6614,11 +6621,11 @@
       <c r="E194" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G194" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -6631,11 +6638,11 @@
       <c r="E195" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G195" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -6648,11 +6655,11 @@
       <c r="E196" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G196" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -6665,11 +6672,11 @@
       <c r="E197" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G197" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -6682,11 +6689,11 @@
       <c r="E198" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G198" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -6699,11 +6706,11 @@
       <c r="E199" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G199" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -6716,11 +6723,11 @@
       <c r="E200" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G200" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -6733,7 +6740,7 @@
       <c r="E201" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6961,7 +6968,7 @@
           <x14:formula1>
             <xm:f>faang_field_values!$A$3:$J$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G201</xm:sqref>
+          <xm:sqref>H2:H201</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/assets/with_examples/faang_analysis.xlsx
+++ b/src/assets/with_examples/faang_analysis.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DF694E-675A-E041-ACD8-199C5CA15F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15995248-0154-E643-B213-6C48A4FF94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27640" windowHeight="16040" xr2:uid="{D8AC673E-FE7C-174A-B15F-CD4D6641A206}"/>
+    <workbookView xWindow="36440" yWindow="2480" windowWidth="27640" windowHeight="16040" activeTab="1" xr2:uid="{D8AC673E-FE7C-174A-B15F-CD4D6641A206}"/>
   </bookViews>
   <sheets>
-    <sheet name="faang" sheetId="1" r:id="rId1"/>
-    <sheet name="ena" sheetId="2" r:id="rId2"/>
-    <sheet name="eva" sheetId="3" r:id="rId3"/>
-    <sheet name="faang_field_values" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="submission" sheetId="5" r:id="rId1"/>
+    <sheet name="faang" sheetId="1" r:id="rId2"/>
+    <sheet name="ena" sheetId="2" r:id="rId3"/>
+    <sheet name="eva" sheetId="3" r:id="rId4"/>
+    <sheet name="faang_field_values" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="945">
   <si>
     <t>Alias</t>
   </si>
@@ -2865,7 +2866,10 @@
     <t>Illumina MiSeq</t>
   </si>
   <si>
-    <t>Analysis Version</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Analysis Code Version</t>
   </si>
 </sst>
 </file>
@@ -3299,11 +3303,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7571E9-70A8-7747-9DFF-0508E3B8CB87}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FCF971-7D08-D749-9B35-64EAEF14B736}">
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3314,7 +3341,7 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="101.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3338,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -6976,7 +7003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52862032-400E-D045-982F-14567BAC1D37}">
   <dimension ref="A1:S201"/>
   <sheetViews>
@@ -17051,7 +17078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF121EC-CD54-D140-8952-93B4B3FE79C0}">
   <dimension ref="A1:W1"/>
   <sheetViews>
@@ -17177,7 +17204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5136D478-A861-6B4B-92CD-33DFA810AC18}">
   <dimension ref="A1:AX7"/>
   <sheetViews>

--- a/src/assets/with_examples/faang_analysis.xlsx
+++ b/src/assets/with_examples/faang_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yroochun/Projects/dcc-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15995248-0154-E643-B213-6C48A4FF94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7A655C-9B7E-C74C-9AEB-FEDFB7846542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36440" yWindow="2480" windowWidth="27640" windowHeight="16040" activeTab="1" xr2:uid="{D8AC673E-FE7C-174A-B15F-CD4D6641A206}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="949">
   <si>
     <t>Alias</t>
   </si>
@@ -2870,6 +2870,18 @@
   </si>
   <si>
     <t>Analysis Code Version</t>
+  </si>
+  <si>
+    <t>Nextflow Config Url</t>
+  </si>
+  <si>
+    <t>Nextflow Spreadsheet Url</t>
+  </si>
+  <si>
+    <t>https://api.faang.org/nextflow_files_upload/nextflow_config/config.txt</t>
+  </si>
+  <si>
+    <t>https://api.faang.org/nextflow_files_upload/nextflow_spreadsheet/file.xlsx</t>
   </si>
 </sst>
 </file>
@@ -3327,10 +3339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FCF971-7D08-D749-9B35-64EAEF14B736}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3343,9 +3355,11 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3370,8 +3384,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3387,8 +3407,14 @@
       <c r="H2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3405,7 +3431,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3422,7 +3448,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3439,7 +3465,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3456,7 +3482,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3473,7 +3499,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3490,7 +3516,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3507,7 +3533,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3524,7 +3550,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3541,7 +3567,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -3558,7 +3584,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3575,7 +3601,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3592,7 +3618,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3609,7 +3635,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -6974,6 +7000,8 @@
     <hyperlink ref="E199" r:id="rId198" xr:uid="{36B17547-1746-5249-A1D3-FC791273EDE3}"/>
     <hyperlink ref="E200" r:id="rId199" xr:uid="{D7F6223A-0BDE-5048-A186-80D349CA79F1}"/>
     <hyperlink ref="E201" r:id="rId200" xr:uid="{D3CEA088-7C89-BB48-B025-EE1DD8666B24}"/>
+    <hyperlink ref="I2" r:id="rId201" xr:uid="{1F065A24-C789-0A4D-97FA-D1F893C7ECB6}"/>
+    <hyperlink ref="J2" r:id="rId202" xr:uid="{7AB5BCF7-7CB5-8745-9A85-9616AE2B0518}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
